--- a/Odunpazari_Missing_Original.xlsx
+++ b/Odunpazari_Missing_Original.xlsx
@@ -1,31 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/idil/Downloads/drive-download-20251004T092037Z-1-001/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/idilerzurum/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DBB6CC0-B0D9-174A-BD02-F2F06C2CB7B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B80173F-1FA9-B549-A8E5-E1CFA7C20EE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$8802</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>PM 2.5 ( µg/m3 )</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>Date</t>
@@ -36,7 +36,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -93,7 +93,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -398,18 +398,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B8802"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="225" zoomScaleNormal="225" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1907,33 +1908,21 @@
       <c r="A188" s="2">
         <v>45299.750648148147</v>
       </c>
-      <c r="B188" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" s="2">
         <v>45299.792314814818</v>
       </c>
-      <c r="B189" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" s="2">
         <v>45299.833981481483</v>
       </c>
-      <c r="B190" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" s="2">
         <v>45299.875648148147</v>
       </c>
-      <c r="B191" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" s="2">
@@ -2275,241 +2264,151 @@
       <c r="A234" s="2">
         <v>45301.667314814818</v>
       </c>
-      <c r="B234" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" s="2">
         <v>45301.708981481483</v>
       </c>
-      <c r="B235" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" s="2">
         <v>45301.750648148147</v>
       </c>
-      <c r="B236" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" s="2">
         <v>45301.792314814818</v>
       </c>
-      <c r="B237" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" s="2">
         <v>45301.833981481483</v>
       </c>
-      <c r="B238" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" s="2">
         <v>45301.875648148147</v>
       </c>
-      <c r="B239" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" s="2">
         <v>45301.917314814818</v>
       </c>
-      <c r="B240" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A241" s="2">
         <v>45301.958981481483</v>
       </c>
-      <c r="B241" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A242" s="2">
         <v>45302.000648148147</v>
       </c>
-      <c r="B242" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A243" s="2">
         <v>45302.042314814818</v>
       </c>
-      <c r="B243" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A244" s="2">
         <v>45302.083981481483</v>
       </c>
-      <c r="B244" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A245" s="2">
         <v>45302.125648148147</v>
       </c>
-      <c r="B245" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A246" s="2">
         <v>45302.167314814818</v>
       </c>
-      <c r="B246" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A247" s="2">
         <v>45302.208981481483</v>
       </c>
-      <c r="B247" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A248" s="2">
         <v>45302.250648148147</v>
       </c>
-      <c r="B248" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A249" s="2">
         <v>45302.292314814818</v>
       </c>
-      <c r="B249" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A250" s="2">
         <v>45302.333981481483</v>
       </c>
-      <c r="B250" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A251" s="2">
         <v>45302.375648148147</v>
       </c>
-      <c r="B251" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A252" s="2">
         <v>45302.417314814818</v>
       </c>
-      <c r="B252" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A253" s="2">
         <v>45302.458981481483</v>
       </c>
-      <c r="B253" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A254" s="2">
         <v>45302.500648148147</v>
       </c>
-      <c r="B254" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A255" s="2">
         <v>45302.542314814818</v>
       </c>
-      <c r="B255" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A256" s="2">
         <v>45302.583981481483</v>
-      </c>
-      <c r="B256" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" s="2">
         <v>45302.625648148147</v>
       </c>
-      <c r="B257" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" s="2">
         <v>45302.667314814818</v>
       </c>
-      <c r="B258" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" s="2">
         <v>45302.708981481483</v>
       </c>
-      <c r="B259" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" s="2">
         <v>45302.750648148147</v>
       </c>
-      <c r="B260" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" s="2">
         <v>45302.792314814818</v>
       </c>
-      <c r="B261" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" s="2">
         <v>45302.833981481483</v>
       </c>
-      <c r="B262" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" s="2">
         <v>45302.875648148147</v>
       </c>
-      <c r="B263" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" s="2">
@@ -2899,33 +2798,21 @@
       <c r="A312" s="2">
         <v>45304.917314814818</v>
       </c>
-      <c r="B312" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313" s="2">
         <v>45304.958981481483</v>
       </c>
-      <c r="B313" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314" s="2">
         <v>45305.000648148147</v>
       </c>
-      <c r="B314" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315" s="2">
         <v>45305.042314814818</v>
       </c>
-      <c r="B315" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316" s="2">
@@ -4547,9 +4434,6 @@
       <c r="A518" s="2">
         <v>45313.500648148147</v>
       </c>
-      <c r="B518" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A519" s="2">
@@ -8819,17 +8703,11 @@
       <c r="A1052" s="2">
         <v>45335.750648148147</v>
       </c>
-      <c r="B1052" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="1053" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1053" s="2">
         <v>45335.792314814818</v>
       </c>
-      <c r="B1053" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="1054" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1054" s="2">
@@ -15907,9 +15785,6 @@
       <c r="A1938" s="2">
         <v>45372.667314814818</v>
       </c>
-      <c r="B1938" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="1939" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1939" s="2">
@@ -16211,17 +16086,11 @@
       <c r="A1976" s="2">
         <v>45374.250648148147</v>
       </c>
-      <c r="B1976" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="1977" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1977" s="2">
         <v>45374.292314814818</v>
       </c>
-      <c r="B1977" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="1978" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1978" s="2">
@@ -16635,9 +16504,6 @@
       <c r="A2029" s="2">
         <v>45376.458981481483</v>
       </c>
-      <c r="B2029" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="2030" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2030" s="2">
@@ -16659,9 +16525,6 @@
       <c r="A2032" s="2">
         <v>45376.583981481483</v>
       </c>
-      <c r="B2032" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="2033" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2033" s="2">
@@ -34315,33 +34178,21 @@
       <c r="A4239" s="2">
         <v>45468.542314814818</v>
       </c>
-      <c r="B4239" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="4240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4240" s="2">
         <v>45468.583981481483</v>
       </c>
-      <c r="B4240" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="4241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4241" s="2">
         <v>45468.625648148147</v>
       </c>
-      <c r="B4241" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="4242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4242" s="2">
         <v>45468.667314814818</v>
       </c>
-      <c r="B4242" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="4243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4243" s="2">
@@ -38571,17 +38422,11 @@
       <c r="A4771" s="2">
         <v>45490.708981481483</v>
       </c>
-      <c r="B4771" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="4772" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4772" s="2">
         <v>45490.750648148147</v>
       </c>
-      <c r="B4772" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="4773" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4773" s="2">
@@ -38963,360 +38808,225 @@
       <c r="A4820" s="2">
         <v>45492.750648148147</v>
       </c>
-      <c r="B4820" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="4821" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4821" s="2">
         <v>45492.792314814818</v>
       </c>
-      <c r="B4821" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="4822" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4822" s="2">
         <v>45492.833981481483</v>
       </c>
-      <c r="B4822" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="4823" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4823" s="2">
         <v>45492.875648148147</v>
       </c>
-      <c r="B4823" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="4824" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4824" s="2">
         <v>45492.917314814818</v>
       </c>
-      <c r="B4824" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="4825" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4825" s="2">
         <v>45492.958981481483</v>
       </c>
-      <c r="B4825" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="4826" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4826" s="2">
         <v>45493.000648148147</v>
       </c>
-      <c r="B4826" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="4827" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4827" s="2">
         <v>45493.042314814818</v>
       </c>
-      <c r="B4827" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="4828" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4828" s="2">
         <v>45493.083981481483</v>
       </c>
-      <c r="B4828" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="4829" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4829" s="2">
         <v>45493.125648148147</v>
       </c>
-      <c r="B4829" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="4830" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4830" s="2">
         <v>45493.167314814818</v>
       </c>
-      <c r="B4830" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="4831" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4831" s="2">
         <v>45493.208981481483</v>
       </c>
-      <c r="B4831" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="4832" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4832" s="2">
         <v>45493.250648148147</v>
       </c>
-      <c r="B4832" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4833" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4833" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4833" s="2">
         <v>45493.292314814818</v>
       </c>
-      <c r="B4833" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4834" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4834" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4834" s="2">
         <v>45493.333981481483</v>
       </c>
-      <c r="B4834" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4835" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4835" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4835" s="2">
         <v>45493.375648148147</v>
       </c>
-      <c r="B4835" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4836" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4836" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4836" s="2">
         <v>45493.417314814818</v>
       </c>
-      <c r="B4836" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4837" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4837" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4837" s="2">
         <v>45493.458981481483</v>
       </c>
-      <c r="B4837" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4838" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4838" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4838" s="2">
         <v>45493.500648148147</v>
       </c>
-      <c r="B4838" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4839" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4839" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4839" s="2">
         <v>45493.542314814818</v>
       </c>
-      <c r="B4839" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4840" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4840" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4840" s="2">
         <v>45493.583981481483</v>
       </c>
-      <c r="B4840" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4841" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4841" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4841" s="2">
         <v>45493.625648148147</v>
       </c>
-      <c r="B4841" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4842" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4842" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4842" s="2">
         <v>45493.667314814818</v>
       </c>
-      <c r="B4842" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4843" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4843" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4843" s="2">
         <v>45493.708981481483</v>
       </c>
-      <c r="B4843" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4844" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4844" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4844" s="2">
         <v>45493.750648148147</v>
       </c>
-      <c r="B4844" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4845" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4845" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4845" s="2">
         <v>45493.792314814818</v>
       </c>
-      <c r="B4845" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4846" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4846" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4846" s="2">
         <v>45493.833981481483</v>
       </c>
-      <c r="B4846" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4847" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4847" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4847" s="2">
         <v>45493.875648148147</v>
       </c>
-      <c r="B4847" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4848" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4848" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4848" s="2">
         <v>45493.917314814818</v>
       </c>
-      <c r="B4848" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4849" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4849" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4849" s="2">
         <v>45493.958981481483</v>
       </c>
-      <c r="B4849" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4850" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4850" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4850" s="2">
         <v>45494.000648148147</v>
       </c>
-      <c r="B4850" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4851" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4851" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4851" s="2">
         <v>45494.042314814818</v>
       </c>
-      <c r="B4851" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4852" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4852" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4852" s="2">
         <v>45494.083981481483</v>
       </c>
-      <c r="B4852" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4853" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4853" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4853" s="2">
         <v>45494.125648148147</v>
       </c>
-      <c r="B4853" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4854" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4854" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4854" s="2">
         <v>45494.167314814818</v>
       </c>
-      <c r="B4854" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4855" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4855" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4855" s="2">
         <v>45494.208981481483</v>
       </c>
-      <c r="B4855" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4856" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4856" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4856" s="2">
         <v>45494.250648148147</v>
       </c>
-      <c r="B4856" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4857" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4857" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4857" s="2">
         <v>45494.292314814818</v>
       </c>
-      <c r="B4857" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4858" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4858" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4858" s="2">
         <v>45494.333981481483</v>
       </c>
-      <c r="B4858" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4859" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4859" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4859" s="2">
         <v>45494.375648148147</v>
       </c>
-      <c r="B4859" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4860" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4860" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4860" s="2">
         <v>45494.417314814818</v>
       </c>
-      <c r="B4860" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4861" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4861" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4861" s="2">
         <v>45494.458981481483</v>
       </c>
-      <c r="B4861" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4862" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4862" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4862" s="2">
         <v>45494.500648148147</v>
       </c>
-      <c r="B4862" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4863" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4863" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4863" s="2">
         <v>45494.542314814818</v>
       </c>
-      <c r="B4863" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4864" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4864" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4864" s="2">
         <v>45494.583981481483</v>
-      </c>
-      <c r="B4864" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="4865" spans="1:2" x14ac:dyDescent="0.2">
@@ -51987,17 +51697,11 @@
       <c r="A6448" s="2">
         <v>45560.583981481483</v>
       </c>
-      <c r="B6448" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="6449" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6449" s="2">
         <v>45560.625648148147</v>
       </c>
-      <c r="B6449" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="6450" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6450" s="2">
@@ -52931,25 +52635,16 @@
       <c r="A6566" s="2">
         <v>45565.500648148147</v>
       </c>
-      <c r="B6566" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="6567" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6567" s="2">
         <v>45565.542314814818</v>
       </c>
-      <c r="B6567" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="6568" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6568" s="2">
         <v>45565.583981481483</v>
       </c>
-      <c r="B6568" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="6569" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6569" s="2">
@@ -59715,25 +59410,16 @@
       <c r="A7414" s="2">
         <v>45600.833981481483</v>
       </c>
-      <c r="B7414" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="7415" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7415" s="2">
         <v>45600.875648148147</v>
       </c>
-      <c r="B7415" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="7416" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7416" s="2">
         <v>45600.917314814818</v>
       </c>
-      <c r="B7416" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="7417" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7417" s="2">
@@ -67163,1128 +66849,705 @@
       <c r="A8345" s="2">
         <v>45639.625648148147</v>
       </c>
-      <c r="B8345" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="8346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8346" s="2">
         <v>45639.667314814818</v>
       </c>
-      <c r="B8346" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="8347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8347" s="2">
         <v>45639.708981481483</v>
       </c>
-      <c r="B8347" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="8348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8348" s="2">
         <v>45639.750648148147</v>
       </c>
-      <c r="B8348" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="8349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8349" s="2">
         <v>45639.792314814818</v>
       </c>
-      <c r="B8349" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="8350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8350" s="2">
         <v>45639.833981481483</v>
       </c>
-      <c r="B8350" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="8351" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8351" s="2">
         <v>45639.875648148147</v>
       </c>
-      <c r="B8351" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="8352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8352" s="2">
         <v>45639.917314814818</v>
       </c>
-      <c r="B8352" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8353" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8353" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8353" s="2">
         <v>45639.958981481483</v>
       </c>
-      <c r="B8353" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8354" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8354" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8354" s="2">
         <v>45640.000648148147</v>
       </c>
-      <c r="B8354" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8355" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8355" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8355" s="2">
         <v>45640.042314814818</v>
       </c>
-      <c r="B8355" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8356" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8356" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8356" s="2">
         <v>45640.083981481483</v>
       </c>
-      <c r="B8356" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8357" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8357" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8357" s="2">
         <v>45640.125648148147</v>
       </c>
-      <c r="B8357" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8358" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8358" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8358" s="2">
         <v>45640.167314814818</v>
       </c>
-      <c r="B8358" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8359" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8359" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8359" s="2">
         <v>45640.208981481483</v>
       </c>
-      <c r="B8359" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8360" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8360" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8360" s="2">
         <v>45640.250648148147</v>
       </c>
-      <c r="B8360" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8361" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8361" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8361" s="2">
         <v>45640.292314814818</v>
       </c>
-      <c r="B8361" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8362" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8362" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8362" s="2">
         <v>45640.333981481483</v>
       </c>
-      <c r="B8362" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8363" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8363" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8363" s="2">
         <v>45640.375648148147</v>
       </c>
-      <c r="B8363" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8364" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8364" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8364" s="2">
         <v>45640.417314814818</v>
       </c>
-      <c r="B8364" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8365" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8365" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8365" s="2">
         <v>45640.458981481483</v>
       </c>
-      <c r="B8365" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8366" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8366" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8366" s="2">
         <v>45640.500648148147</v>
       </c>
-      <c r="B8366" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8367" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8367" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8367" s="2">
         <v>45640.542314814818</v>
       </c>
-      <c r="B8367" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8368" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8368" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8368" s="2">
         <v>45640.583981481483</v>
       </c>
-      <c r="B8368" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8369" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8369" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8369" s="2">
         <v>45640.625648148147</v>
       </c>
-      <c r="B8369" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8370" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8370" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8370" s="2">
         <v>45640.667314814818</v>
       </c>
-      <c r="B8370" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8371" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8371" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8371" s="2">
         <v>45640.708981481483</v>
       </c>
-      <c r="B8371" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8372" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8372" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8372" s="2">
         <v>45640.750648148147</v>
       </c>
-      <c r="B8372" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8373" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8373" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8373" s="2">
         <v>45640.792314814818</v>
       </c>
-      <c r="B8373" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8374" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8374" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8374" s="2">
         <v>45640.833981481483</v>
       </c>
-      <c r="B8374" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8375" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8375" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8375" s="2">
         <v>45640.875648148147</v>
       </c>
-      <c r="B8375" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8376" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8376" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8376" s="2">
         <v>45640.917314814818</v>
       </c>
-      <c r="B8376" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8377" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8377" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8377" s="2">
         <v>45640.958981481483</v>
       </c>
-      <c r="B8377" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8378" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8378" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8378" s="2">
         <v>45641.000648148147</v>
       </c>
-      <c r="B8378" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8379" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8379" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8379" s="2">
         <v>45641.042314814818</v>
       </c>
-      <c r="B8379" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8380" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8380" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8380" s="2">
         <v>45641.083981481483</v>
       </c>
-      <c r="B8380" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8381" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8381" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8381" s="2">
         <v>45641.125648148147</v>
       </c>
-      <c r="B8381" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8382" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8382" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8382" s="2">
         <v>45641.167314814818</v>
       </c>
-      <c r="B8382" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8383" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8383" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8383" s="2">
         <v>45641.208981481483</v>
       </c>
-      <c r="B8383" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8384" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8384" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8384" s="2">
         <v>45641.250648148147</v>
       </c>
-      <c r="B8384" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8385" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8385" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8385" s="2">
         <v>45641.292314814818</v>
       </c>
-      <c r="B8385" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8386" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8386" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8386" s="2">
         <v>45641.333981481483</v>
       </c>
-      <c r="B8386" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8387" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8387" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8387" s="2">
         <v>45641.375648148147</v>
       </c>
-      <c r="B8387" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8388" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8388" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8388" s="2">
         <v>45641.417314814818</v>
       </c>
-      <c r="B8388" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8389" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8389" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8389" s="2">
         <v>45641.458981481483</v>
       </c>
-      <c r="B8389" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8390" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8390" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8390" s="2">
         <v>45641.500648148147</v>
       </c>
-      <c r="B8390" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8391" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8391" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8391" s="2">
         <v>45641.542314814818</v>
       </c>
-      <c r="B8391" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8392" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8392" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8392" s="2">
         <v>45641.583981481483</v>
       </c>
-      <c r="B8392" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8393" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8393" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8393" s="2">
         <v>45641.625648148147</v>
       </c>
-      <c r="B8393" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8394" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8394" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8394" s="2">
         <v>45641.667314814818</v>
       </c>
-      <c r="B8394" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8395" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8395" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8395" s="2">
         <v>45641.708981481483</v>
       </c>
-      <c r="B8395" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8396" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8396" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8396" s="2">
         <v>45641.750648148147</v>
       </c>
-      <c r="B8396" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8397" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8397" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8397" s="2">
         <v>45641.792314814818</v>
       </c>
-      <c r="B8397" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8398" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8398" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8398" s="2">
         <v>45641.833981481483</v>
       </c>
-      <c r="B8398" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8399" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8399" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8399" s="2">
         <v>45641.875648148147</v>
       </c>
-      <c r="B8399" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8400" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8400" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8400" s="2">
         <v>45641.917314814818</v>
       </c>
-      <c r="B8400" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8401" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8401" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8401" s="2">
         <v>45641.958981481483</v>
       </c>
-      <c r="B8401" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8402" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8402" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8402" s="2">
         <v>45642.000648148147</v>
       </c>
-      <c r="B8402" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8403" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8403" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8403" s="2">
         <v>45642.042314814818</v>
       </c>
-      <c r="B8403" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8404" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8404" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8404" s="2">
         <v>45642.083981481483</v>
       </c>
-      <c r="B8404" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8405" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8405" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8405" s="2">
         <v>45642.125648148147</v>
       </c>
-      <c r="B8405" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8406" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8406" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8406" s="2">
         <v>45642.167314814818</v>
       </c>
-      <c r="B8406" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8407" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8407" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8407" s="2">
         <v>45642.208981481483</v>
       </c>
-      <c r="B8407" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8408" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8408" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8408" s="2">
         <v>45642.250648148147</v>
       </c>
-      <c r="B8408" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8409" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8409" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8409" s="2">
         <v>45642.292314814818</v>
       </c>
-      <c r="B8409" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8410" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8410" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8410" s="2">
         <v>45642.333981481483</v>
       </c>
-      <c r="B8410" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8411" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8411" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8411" s="2">
         <v>45642.375648148147</v>
       </c>
-      <c r="B8411" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8412" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8412" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8412" s="2">
         <v>45642.417314814818</v>
       </c>
-      <c r="B8412" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8413" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8413" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8413" s="2">
         <v>45642.458981481483</v>
       </c>
-      <c r="B8413" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8414" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8414" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8414" s="2">
         <v>45642.500648148147</v>
       </c>
-      <c r="B8414" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8415" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8415" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8415" s="2">
         <v>45642.542314814818</v>
       </c>
-      <c r="B8415" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8416" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8416" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8416" s="2">
         <v>45642.583981481483</v>
       </c>
-      <c r="B8416" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8417" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8417" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8417" s="2">
         <v>45642.625648148147</v>
       </c>
-      <c r="B8417" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8418" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8418" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8418" s="2">
         <v>45642.667314814818</v>
       </c>
-      <c r="B8418" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8419" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8419" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8419" s="2">
         <v>45642.708981481483</v>
       </c>
-      <c r="B8419" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8420" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8420" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8420" s="2">
         <v>45642.750648148147</v>
       </c>
-      <c r="B8420" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8421" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8421" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8421" s="2">
         <v>45642.792314814818</v>
       </c>
-      <c r="B8421" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8422" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8422" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8422" s="2">
         <v>45642.833981481483</v>
       </c>
-      <c r="B8422" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8423" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8423" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8423" s="2">
         <v>45642.875648148147</v>
       </c>
-      <c r="B8423" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8424" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8424" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8424" s="2">
         <v>45642.917314814818</v>
       </c>
-      <c r="B8424" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8425" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8425" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8425" s="2">
         <v>45642.958981481483</v>
       </c>
-      <c r="B8425" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8426" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8426" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8426" s="2">
         <v>45643.000648148147</v>
       </c>
-      <c r="B8426" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8427" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8427" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8427" s="2">
         <v>45643.042314814818</v>
       </c>
-      <c r="B8427" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8428" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8428" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8428" s="2">
         <v>45643.083981481483</v>
       </c>
-      <c r="B8428" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8429" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8429" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8429" s="2">
         <v>45643.125648148147</v>
       </c>
-      <c r="B8429" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8430" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8430" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8430" s="2">
         <v>45643.167314814818</v>
       </c>
-      <c r="B8430" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8431" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8431" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8431" s="2">
         <v>45643.208981481483</v>
       </c>
-      <c r="B8431" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8432" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8432" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8432" s="2">
         <v>45643.250648148147</v>
       </c>
-      <c r="B8432" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8433" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8433" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8433" s="2">
         <v>45643.292314814818</v>
       </c>
-      <c r="B8433" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8434" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8434" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8434" s="2">
         <v>45643.333981481483</v>
       </c>
-      <c r="B8434" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8435" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8435" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8435" s="2">
         <v>45643.375648148147</v>
       </c>
-      <c r="B8435" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8436" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8436" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8436" s="2">
         <v>45643.417314814818</v>
       </c>
-      <c r="B8436" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8437" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8437" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8437" s="2">
         <v>45643.458981481483</v>
       </c>
-      <c r="B8437" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8438" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8438" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8438" s="2">
         <v>45643.500648148147</v>
       </c>
-      <c r="B8438" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8439" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8439" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8439" s="2">
         <v>45643.542314814818</v>
       </c>
-      <c r="B8439" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8440" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8440" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8440" s="2">
         <v>45643.583981481483</v>
       </c>
-      <c r="B8440" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8441" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8441" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8441" s="2">
         <v>45643.625648148147</v>
       </c>
-      <c r="B8441" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8442" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8442" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8442" s="2">
         <v>45643.667314814818</v>
       </c>
-      <c r="B8442" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8443" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8443" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8443" s="2">
         <v>45643.708981481483</v>
       </c>
-      <c r="B8443" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8444" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8444" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8444" s="2">
         <v>45643.750648148147</v>
       </c>
-      <c r="B8444" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8445" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8445" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8445" s="2">
         <v>45643.792314814818</v>
       </c>
-      <c r="B8445" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8446" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8446" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8446" s="2">
         <v>45643.833981481483</v>
       </c>
-      <c r="B8446" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8447" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8447" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8447" s="2">
         <v>45643.875648148147</v>
       </c>
-      <c r="B8447" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8448" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8448" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8448" s="2">
         <v>45643.917314814818</v>
       </c>
-      <c r="B8448" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8449" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8449" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8449" s="2">
         <v>45643.958981481483</v>
       </c>
-      <c r="B8449" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8450" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8450" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8450" s="2">
         <v>45644.000648148147</v>
       </c>
-      <c r="B8450" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8451" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8451" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8451" s="2">
         <v>45644.042314814818</v>
       </c>
-      <c r="B8451" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8452" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8452" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8452" s="2">
         <v>45644.083981481483</v>
       </c>
-      <c r="B8452" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8453" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8453" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8453" s="2">
         <v>45644.125648148147</v>
       </c>
-      <c r="B8453" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8454" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8454" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8454" s="2">
         <v>45644.167314814818</v>
       </c>
-      <c r="B8454" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8455" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8455" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8455" s="2">
         <v>45644.208981481483</v>
       </c>
-      <c r="B8455" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8456" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8456" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8456" s="2">
         <v>45644.250648148147</v>
       </c>
-      <c r="B8456" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8457" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8457" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8457" s="2">
         <v>45644.292314814818</v>
       </c>
-      <c r="B8457" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8458" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8458" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8458" s="2">
         <v>45644.333981481483</v>
       </c>
-      <c r="B8458" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8459" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8459" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8459" s="2">
         <v>45644.375648148147</v>
       </c>
-      <c r="B8459" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8460" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8460" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8460" s="2">
         <v>45644.417314814818</v>
       </c>
-      <c r="B8460" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8461" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8461" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8461" s="2">
         <v>45644.458981481483</v>
       </c>
-      <c r="B8461" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8462" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8462" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8462" s="2">
         <v>45644.500648148147</v>
       </c>
-      <c r="B8462" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8463" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8463" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8463" s="2">
         <v>45644.542314814818</v>
       </c>
-      <c r="B8463" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8464" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8464" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8464" s="2">
         <v>45644.583981481483</v>
       </c>
-      <c r="B8464" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8465" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8465" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8465" s="2">
         <v>45644.625648148147</v>
       </c>
-      <c r="B8465" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8466" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8466" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8466" s="2">
         <v>45644.667314814818</v>
       </c>
-      <c r="B8466" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8467" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8467" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8467" s="2">
         <v>45644.708981481483</v>
       </c>
-      <c r="B8467" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8468" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8468" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8468" s="2">
         <v>45644.750648148147</v>
       </c>
-      <c r="B8468" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8469" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8469" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8469" s="2">
         <v>45644.792314814818</v>
       </c>
-      <c r="B8469" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8470" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8470" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8470" s="2">
         <v>45644.833981481483</v>
       </c>
-      <c r="B8470" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8471" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8471" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8471" s="2">
         <v>45644.875648148147</v>
       </c>
-      <c r="B8471" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8472" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8472" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8472" s="2">
         <v>45644.917314814818</v>
       </c>
-      <c r="B8472" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8473" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8473" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8473" s="2">
         <v>45644.958981481483</v>
       </c>
-      <c r="B8473" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8474" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8474" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8474" s="2">
         <v>45645.000648148147</v>
       </c>
-      <c r="B8474" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8475" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8475" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8475" s="2">
         <v>45645.042314814818</v>
       </c>
-      <c r="B8475" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8476" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8476" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8476" s="2">
         <v>45645.083981481483</v>
       </c>
-      <c r="B8476" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8477" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8477" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8477" s="2">
         <v>45645.125648148147</v>
       </c>
-      <c r="B8477" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8478" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8478" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8478" s="2">
         <v>45645.167314814818</v>
       </c>
-      <c r="B8478" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8479" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8479" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8479" s="2">
         <v>45645.208981481483</v>
       </c>
-      <c r="B8479" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8480" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8480" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8480" s="2">
         <v>45645.250648148147</v>
-      </c>
-      <c r="B8480" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="8481" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8481" s="2">
         <v>45645.292314814818</v>
       </c>
-      <c r="B8481" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="8482" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8482" s="2">
         <v>45645.333981481483</v>
       </c>
-      <c r="B8482" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="8483" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8483" s="2">
         <v>45645.375648148147</v>
       </c>
-      <c r="B8483" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="8484" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8484" s="2">
         <v>45645.417314814818</v>
       </c>
-      <c r="B8484" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="8485" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8485" s="2">
         <v>45645.458981481483</v>
-      </c>
-      <c r="B8485" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="8486" spans="1:2" x14ac:dyDescent="0.2">
